--- a/Assets/06.Table/TransJewelLevel.xlsx
+++ b/Assets/06.Table/TransJewelLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF961D8A-43E6-4E61-A2F4-09C456CAF32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908384C-7DD8-45A7-8DEA-60BE040B2FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransJewelLevel" sheetId="1" r:id="rId1"/>
@@ -535,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1544,806 @@
         <v>550</v>
       </c>
     </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1659,11 +2459,11 @@
         <v>300</v>
       </c>
       <c r="E6" s="3">
-        <f>D6/$X$26</f>
+        <f t="shared" ref="E6:E37" si="0">D6/$X$26</f>
         <v>0.44776119402985076</v>
       </c>
       <c r="F6" s="3">
-        <f>D6/$AD$26</f>
+        <f t="shared" ref="F6:F37" si="1">D6/$AD$26</f>
         <v>0.49751243781094528</v>
       </c>
       <c r="G6" s="5">
@@ -1743,15 +2543,15 @@
         <v>600</v>
       </c>
       <c r="E7" s="3">
-        <f>D7/$X$26</f>
+        <f t="shared" si="0"/>
         <v>0.89552238805970152</v>
       </c>
       <c r="F7" s="3">
-        <f>D7/$AD$26</f>
+        <f t="shared" si="1"/>
         <v>0.99502487562189057</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G70" si="0">(B7+1)*$G$4</f>
+        <f t="shared" ref="G7:G70" si="2">(B7+1)*$G$4</f>
         <v>22</v>
       </c>
       <c r="I7">
@@ -1788,15 +2588,15 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <f>($T$4*$T$3/3)*K7</f>
+        <f t="shared" ref="T7:T30" si="3">($T$4*$T$3/3)*K7</f>
         <v>233.33333333333334</v>
       </c>
       <c r="U7">
-        <f>($T$4*$T$3/3)*L7</f>
+        <f t="shared" ref="U7:U30" si="4">($T$4*$T$3/3)*L7</f>
         <v>233.33333333333334</v>
       </c>
       <c r="V7">
-        <f>($T$4*$T$3/3)*M7</f>
+        <f t="shared" ref="V7:V30" si="5">($T$4*$T$3/3)*M7</f>
         <v>233.33333333333334</v>
       </c>
       <c r="W7">
@@ -1808,15 +2608,15 @@
         <v>100</v>
       </c>
       <c r="Z7">
-        <f>($T$4*$T$3)*J7</f>
+        <f t="shared" ref="Z7:Z30" si="6">($T$4*$T$3)*J7</f>
         <v>210</v>
       </c>
       <c r="AA7">
-        <f>($T$4*$T$3)*J7</f>
+        <f t="shared" ref="AA7:AA30" si="7">($T$4*$T$3)*J7</f>
         <v>210</v>
       </c>
       <c r="AB7">
-        <f>($T$4*$T$3)*J7</f>
+        <f t="shared" ref="AB7:AB30" si="8">($T$4*$T$3)*J7</f>
         <v>210</v>
       </c>
       <c r="AC7">
@@ -1840,96 +2640,96 @@
         <v>100</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D71" si="1">D7+C8*3</f>
+        <f t="shared" ref="D8:D71" si="9">D7+C8*3</f>
         <v>900</v>
       </c>
       <c r="E8" s="3">
-        <f>D8/$X$26</f>
+        <f t="shared" si="0"/>
         <v>1.3432835820895523</v>
       </c>
       <c r="F8" s="3">
-        <f>D8/$AD$26</f>
+        <f t="shared" si="1"/>
         <v>1.4925373134328359</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J26" si="2">(K8*((100-$J$3)/100))/3</f>
+        <f t="shared" ref="J8:J26" si="10">(K8*((100-$J$3)/100))/3</f>
         <v>39</v>
       </c>
       <c r="K8">
         <v>130</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L26" si="3">K8</f>
+        <f t="shared" ref="L8:L26" si="11">K8</f>
         <v>130</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M26" si="4">K8</f>
+        <f t="shared" ref="M8:M26" si="12">K8</f>
         <v>130</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N26" si="5">L8</f>
+        <f t="shared" ref="N8:N26" si="13">L8</f>
         <v>130</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O26" si="6">M8</f>
+        <f t="shared" ref="O8:O26" si="14">M8</f>
         <v>130</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P26" si="7">K8</f>
+        <f t="shared" ref="P8:P26" si="15">K8</f>
         <v>130</v>
       </c>
       <c r="S8">
         <v>2</v>
       </c>
       <c r="T8">
-        <f>($T$4*$T$3/3)*K8</f>
+        <f t="shared" si="3"/>
         <v>303.33333333333337</v>
       </c>
       <c r="U8">
-        <f>($T$4*$T$3/3)*L8</f>
+        <f t="shared" si="4"/>
         <v>303.33333333333337</v>
       </c>
       <c r="V8">
-        <f>($T$4*$T$3/3)*M8</f>
+        <f t="shared" si="5"/>
         <v>303.33333333333337</v>
       </c>
       <c r="W8">
-        <f t="shared" ref="W8:W30" si="8">SUM(T8:V8)</f>
+        <f t="shared" ref="W8:W30" si="16">SUM(T8:V8)</f>
         <v>910.00000000000011</v>
       </c>
       <c r="X8">
-        <f t="shared" ref="X8:X30" si="9">W8/$T$4</f>
+        <f t="shared" ref="X8:X30" si="17">W8/$T$4</f>
         <v>130.00000000000003</v>
       </c>
       <c r="Z8">
-        <f>($T$4*$T$3)*J8</f>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="AA8">
-        <f>($T$4*$T$3)*J8</f>
+        <f t="shared" si="7"/>
         <v>273</v>
       </c>
       <c r="AB8">
-        <f>($T$4*$T$3)*J8</f>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="AC8">
-        <f t="shared" ref="AC8:AC30" si="10">SUM(Z8:AB8)</f>
+        <f t="shared" ref="AC8:AC30" si="18">SUM(Z8:AB8)</f>
         <v>819</v>
       </c>
       <c r="AD8">
-        <f t="shared" ref="AD8:AD26" si="11">AC8/$T$4</f>
+        <f t="shared" ref="AD8:AD26" si="19">AC8/$T$4</f>
         <v>117</v>
       </c>
       <c r="AE8">
-        <f t="shared" ref="AE8:AE30" si="12">X8-AD8</f>
+        <f t="shared" ref="AE8:AE30" si="20">X8-AD8</f>
         <v>13.000000000000028</v>
       </c>
     </row>
@@ -1941,96 +2741,96 @@
         <v>100</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.791044776119403</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="E9" s="3">
-        <f>D9/$X$26</f>
-        <v>1.791044776119403</v>
-      </c>
-      <c r="F9" s="3">
-        <f>D9/$AD$26</f>
         <v>1.9900497512437811</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="K9">
         <v>160</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>160</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9">
-        <f>($T$4*$T$3/3)*K9</f>
+        <f t="shared" si="3"/>
         <v>373.33333333333337</v>
       </c>
       <c r="U9">
-        <f>($T$4*$T$3/3)*L9</f>
+        <f t="shared" si="4"/>
         <v>373.33333333333337</v>
       </c>
       <c r="V9">
-        <f>($T$4*$T$3/3)*M9</f>
+        <f t="shared" si="5"/>
         <v>373.33333333333337</v>
       </c>
       <c r="W9">
+        <f t="shared" si="16"/>
+        <v>1120</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="8"/>
-        <v>1120</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="Z9">
-        <f>($T$4*$T$3)*J9</f>
         <v>336</v>
       </c>
-      <c r="AA9">
-        <f>($T$4*$T$3)*J9</f>
-        <v>336</v>
-      </c>
-      <c r="AB9">
-        <f>($T$4*$T$3)*J9</f>
-        <v>336</v>
-      </c>
       <c r="AC9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1008</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
     </row>
@@ -2042,96 +2842,96 @@
         <v>100</v>
       </c>
       <c r="D10" s="4">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2388059701492535</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="E10" s="3">
-        <f>D10/$X$26</f>
-        <v>2.2388059701492535</v>
-      </c>
-      <c r="F10" s="3">
-        <f>D10/$AD$26</f>
         <v>2.4875621890547261</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="K10">
         <v>190</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>190</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>190</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>190</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>190</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
       <c r="T10">
-        <f>($T$4*$T$3/3)*K10</f>
+        <f t="shared" si="3"/>
         <v>443.33333333333337</v>
       </c>
       <c r="U10">
-        <f>($T$4*$T$3/3)*L10</f>
+        <f t="shared" si="4"/>
         <v>443.33333333333337</v>
       </c>
       <c r="V10">
-        <f>($T$4*$T$3/3)*M10</f>
+        <f t="shared" si="5"/>
         <v>443.33333333333337</v>
       </c>
       <c r="W10">
+        <f t="shared" si="16"/>
+        <v>1330</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>190</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="8"/>
-        <v>1330</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="9"/>
-        <v>190</v>
-      </c>
-      <c r="Z10">
-        <f>($T$4*$T$3)*J10</f>
         <v>399</v>
       </c>
-      <c r="AA10">
-        <f>($T$4*$T$3)*J10</f>
-        <v>399</v>
-      </c>
-      <c r="AB10">
-        <f>($T$4*$T$3)*J10</f>
-        <v>399</v>
-      </c>
       <c r="AC10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1197</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>171</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
     </row>
@@ -2144,96 +2944,96 @@
         <v>150</v>
       </c>
       <c r="D11" s="4">
+        <f t="shared" si="9"/>
+        <v>1950</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.91044776119403</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>1950</v>
-      </c>
-      <c r="E11" s="3">
-        <f>D11/$X$26</f>
-        <v>2.91044776119403</v>
-      </c>
-      <c r="F11" s="3">
-        <f>D11/$AD$26</f>
         <v>3.2338308457711444</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="K11">
         <v>220</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>220</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>220</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="S11">
         <v>5</v>
       </c>
       <c r="T11">
-        <f>($T$4*$T$3/3)*K11</f>
+        <f t="shared" si="3"/>
         <v>513.33333333333337</v>
       </c>
       <c r="U11">
-        <f>($T$4*$T$3/3)*L11</f>
+        <f t="shared" si="4"/>
         <v>513.33333333333337</v>
       </c>
       <c r="V11">
-        <f>($T$4*$T$3/3)*M11</f>
+        <f t="shared" si="5"/>
         <v>513.33333333333337</v>
       </c>
       <c r="W11">
+        <f t="shared" si="16"/>
+        <v>1540</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>462</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>462</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="8"/>
-        <v>1540</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-      <c r="Z11">
-        <f>($T$4*$T$3)*J11</f>
         <v>462</v>
       </c>
-      <c r="AA11">
-        <f>($T$4*$T$3)*J11</f>
-        <v>462</v>
-      </c>
-      <c r="AB11">
-        <f>($T$4*$T$3)*J11</f>
-        <v>462</v>
-      </c>
       <c r="AC11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1386</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>198</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
     </row>
@@ -2242,100 +3042,100 @@
         <v>6</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:C75" si="13">C7+50</f>
+        <f t="shared" ref="C12:C25" si="21">C7+50</f>
         <v>150</v>
       </c>
       <c r="D12" s="4">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5820895522388061</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="E12" s="3">
-        <f>D12/$X$26</f>
-        <v>3.5820895522388061</v>
-      </c>
-      <c r="F12" s="3">
-        <f>D12/$AD$26</f>
         <v>3.9800995024875623</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="K12">
         <v>250</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>250</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="S12">
         <v>6</v>
       </c>
       <c r="T12">
-        <f>($T$4*$T$3/3)*K12</f>
+        <f t="shared" si="3"/>
         <v>583.33333333333337</v>
       </c>
       <c r="U12">
-        <f>($T$4*$T$3/3)*L12</f>
+        <f t="shared" si="4"/>
         <v>583.33333333333337</v>
       </c>
       <c r="V12">
-        <f>($T$4*$T$3/3)*M12</f>
+        <f t="shared" si="5"/>
         <v>583.33333333333337</v>
       </c>
       <c r="W12">
+        <f t="shared" si="16"/>
+        <v>1750</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="8"/>
-        <v>1750</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="9"/>
-        <v>250</v>
-      </c>
-      <c r="Z12">
-        <f>($T$4*$T$3)*J12</f>
         <v>525</v>
       </c>
-      <c r="AA12">
-        <f>($T$4*$T$3)*J12</f>
-        <v>525</v>
-      </c>
-      <c r="AB12">
-        <f>($T$4*$T$3)*J12</f>
-        <v>525</v>
-      </c>
       <c r="AC12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1575</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>225</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
     </row>
@@ -2344,100 +3144,100 @@
         <v>7</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="9"/>
+        <v>2850</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2537313432835822</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>2850</v>
-      </c>
-      <c r="E13" s="3">
-        <f>D13/$X$26</f>
-        <v>4.2537313432835822</v>
-      </c>
-      <c r="F13" s="3">
-        <f>D13/$AD$26</f>
         <v>4.7263681592039797</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="I13">
         <v>7</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="K13">
         <v>280</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>280</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>280</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="S13">
         <v>7</v>
       </c>
       <c r="T13">
-        <f>($T$4*$T$3/3)*K13</f>
+        <f t="shared" si="3"/>
         <v>653.33333333333337</v>
       </c>
       <c r="U13">
-        <f>($T$4*$T$3/3)*L13</f>
+        <f t="shared" si="4"/>
         <v>653.33333333333337</v>
       </c>
       <c r="V13">
-        <f>($T$4*$T$3/3)*M13</f>
+        <f t="shared" si="5"/>
         <v>653.33333333333337</v>
       </c>
       <c r="W13">
+        <f t="shared" si="16"/>
+        <v>1960</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="17"/>
+        <v>280</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="8"/>
-        <v>1960</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="9"/>
-        <v>280</v>
-      </c>
-      <c r="Z13">
-        <f>($T$4*$T$3)*J13</f>
         <v>588</v>
       </c>
-      <c r="AA13">
-        <f>($T$4*$T$3)*J13</f>
-        <v>588</v>
-      </c>
-      <c r="AB13">
-        <f>($T$4*$T$3)*J13</f>
-        <v>588</v>
-      </c>
       <c r="AC13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1764</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>252</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
     </row>
@@ -2446,100 +3246,100 @@
         <v>8</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="D14" s="4">
+        <f t="shared" si="9"/>
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9253731343283578</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="E14" s="3">
-        <f>D14/$X$26</f>
-        <v>4.9253731343283578</v>
-      </c>
-      <c r="F14" s="3">
-        <f>D14/$AD$26</f>
         <v>5.4726368159203984</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I14">
         <v>8</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="K14">
         <v>310</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>310</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>310</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>310</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="S14">
         <v>8</v>
       </c>
       <c r="T14">
-        <f>($T$4*$T$3/3)*K14</f>
+        <f t="shared" si="3"/>
         <v>723.33333333333337</v>
       </c>
       <c r="U14">
-        <f>($T$4*$T$3/3)*L14</f>
+        <f t="shared" si="4"/>
         <v>723.33333333333337</v>
       </c>
       <c r="V14">
-        <f>($T$4*$T$3/3)*M14</f>
+        <f t="shared" si="5"/>
         <v>723.33333333333337</v>
       </c>
       <c r="W14">
+        <f t="shared" si="16"/>
+        <v>2170</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="17"/>
+        <v>310</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>651</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="7"/>
+        <v>651</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="8"/>
-        <v>2170</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="9"/>
-        <v>310</v>
-      </c>
-      <c r="Z14">
-        <f>($T$4*$T$3)*J14</f>
         <v>651</v>
       </c>
-      <c r="AA14">
-        <f>($T$4*$T$3)*J14</f>
-        <v>651</v>
-      </c>
-      <c r="AB14">
-        <f>($T$4*$T$3)*J14</f>
-        <v>651</v>
-      </c>
       <c r="AC14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1953</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>279</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
     </row>
@@ -2548,100 +3348,100 @@
         <v>9</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="D15" s="4">
+        <f t="shared" si="9"/>
+        <v>3750</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5970149253731343</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>3750</v>
-      </c>
-      <c r="E15" s="3">
-        <f>D15/$X$26</f>
-        <v>5.5970149253731343</v>
-      </c>
-      <c r="F15" s="3">
-        <f>D15/$AD$26</f>
         <v>6.2189054726368163</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="I15">
         <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="K15">
         <v>340</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>340</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>340</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>340</v>
       </c>
       <c r="S15">
         <v>9</v>
       </c>
       <c r="T15">
-        <f>($T$4*$T$3/3)*K15</f>
+        <f t="shared" si="3"/>
         <v>793.33333333333337</v>
       </c>
       <c r="U15">
-        <f>($T$4*$T$3/3)*L15</f>
+        <f t="shared" si="4"/>
         <v>793.33333333333337</v>
       </c>
       <c r="V15">
-        <f>($T$4*$T$3/3)*M15</f>
+        <f t="shared" si="5"/>
         <v>793.33333333333337</v>
       </c>
       <c r="W15">
+        <f t="shared" si="16"/>
+        <v>2380</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="17"/>
+        <v>340</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>714</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="7"/>
+        <v>714</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="8"/>
-        <v>2380</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="9"/>
-        <v>340</v>
-      </c>
-      <c r="Z15">
-        <f>($T$4*$T$3)*J15</f>
         <v>714</v>
       </c>
-      <c r="AA15">
-        <f>($T$4*$T$3)*J15</f>
-        <v>714</v>
-      </c>
-      <c r="AB15">
-        <f>($T$4*$T$3)*J15</f>
-        <v>714</v>
-      </c>
       <c r="AC15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2142</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>306</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
     </row>
@@ -2650,100 +3450,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D16" s="4">
+        <f t="shared" si="9"/>
+        <v>4350</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4925373134328357</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>4350</v>
-      </c>
-      <c r="E16" s="3">
-        <f>D16/$X$26</f>
-        <v>6.4925373134328357</v>
-      </c>
-      <c r="F16" s="3">
-        <f>D16/$AD$26</f>
         <v>7.2139303482587067</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="K16">
         <v>370</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>370</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>370</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>370</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
       <c r="S16">
         <v>10</v>
       </c>
       <c r="T16">
-        <f>($T$4*$T$3/3)*K16</f>
+        <f t="shared" si="3"/>
         <v>863.33333333333337</v>
       </c>
       <c r="U16">
-        <f>($T$4*$T$3/3)*L16</f>
+        <f t="shared" si="4"/>
         <v>863.33333333333337</v>
       </c>
       <c r="V16">
-        <f>($T$4*$T$3/3)*M16</f>
+        <f t="shared" si="5"/>
         <v>863.33333333333337</v>
       </c>
       <c r="W16">
+        <f t="shared" si="16"/>
+        <v>2590</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="17"/>
+        <v>370</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>777</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>777</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="8"/>
-        <v>2590</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="9"/>
-        <v>370</v>
-      </c>
-      <c r="Z16">
-        <f>($T$4*$T$3)*J16</f>
         <v>777</v>
       </c>
-      <c r="AA16">
-        <f>($T$4*$T$3)*J16</f>
-        <v>777</v>
-      </c>
-      <c r="AB16">
-        <f>($T$4*$T$3)*J16</f>
-        <v>777</v>
-      </c>
       <c r="AC16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2331</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>333</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
     </row>
@@ -2752,100 +3552,100 @@
         <v>11</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>4950</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3880597014925371</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>4950</v>
-      </c>
-      <c r="E17" s="3">
-        <f>D17/$X$26</f>
-        <v>7.3880597014925371</v>
-      </c>
-      <c r="F17" s="3">
-        <f>D17/$AD$26</f>
         <v>8.2089552238805972</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="I17">
         <v>11</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="K17">
         <v>400</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="S17">
         <v>11</v>
       </c>
       <c r="T17">
-        <f>($T$4*$T$3/3)*K17</f>
+        <f t="shared" si="3"/>
         <v>933.33333333333337</v>
       </c>
       <c r="U17">
-        <f>($T$4*$T$3/3)*L17</f>
+        <f t="shared" si="4"/>
         <v>933.33333333333337</v>
       </c>
       <c r="V17">
-        <f>($T$4*$T$3/3)*M17</f>
+        <f t="shared" si="5"/>
         <v>933.33333333333337</v>
       </c>
       <c r="W17">
+        <f t="shared" si="16"/>
+        <v>2800</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>840</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="Z17">
-        <f>($T$4*$T$3)*J17</f>
         <v>840</v>
       </c>
-      <c r="AA17">
-        <f>($T$4*$T$3)*J17</f>
-        <v>840</v>
-      </c>
-      <c r="AB17">
-        <f>($T$4*$T$3)*J17</f>
-        <v>840</v>
-      </c>
       <c r="AC17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2520</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>360</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
     </row>
@@ -2854,100 +3654,100 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D18" s="4">
+        <f t="shared" si="9"/>
+        <v>5550</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2835820895522385</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>5550</v>
-      </c>
-      <c r="E18" s="3">
-        <f>D18/$X$26</f>
-        <v>8.2835820895522385</v>
-      </c>
-      <c r="F18" s="3">
-        <f>D18/$AD$26</f>
         <v>9.2039800995024876</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="I18">
         <v>12</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
       <c r="K18">
         <v>430</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>430</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>430</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>430</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>430</v>
       </c>
       <c r="S18">
         <v>12</v>
       </c>
       <c r="T18">
-        <f>($T$4*$T$3/3)*K18</f>
+        <f t="shared" si="3"/>
         <v>1003.3333333333334</v>
       </c>
       <c r="U18">
-        <f>($T$4*$T$3/3)*L18</f>
+        <f t="shared" si="4"/>
         <v>1003.3333333333334</v>
       </c>
       <c r="V18">
-        <f>($T$4*$T$3/3)*M18</f>
+        <f t="shared" si="5"/>
         <v>1003.3333333333334</v>
       </c>
       <c r="W18">
+        <f t="shared" si="16"/>
+        <v>3010</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>903</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="7"/>
+        <v>903</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="8"/>
-        <v>3010</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="Z18">
-        <f>($T$4*$T$3)*J18</f>
         <v>903</v>
       </c>
-      <c r="AA18">
-        <f>($T$4*$T$3)*J18</f>
-        <v>903</v>
-      </c>
-      <c r="AB18">
-        <f>($T$4*$T$3)*J18</f>
-        <v>903</v>
-      </c>
       <c r="AC18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2709</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>387</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
     </row>
@@ -2956,100 +3756,100 @@
         <v>13</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D19" s="4">
+        <f t="shared" si="9"/>
+        <v>6150</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1791044776119399</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>6150</v>
-      </c>
-      <c r="E19" s="3">
-        <f>D19/$X$26</f>
-        <v>9.1791044776119399</v>
-      </c>
-      <c r="F19" s="3">
-        <f>D19/$AD$26</f>
         <v>10.199004975124378</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="I19">
         <v>13</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="K19">
         <v>460</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>460</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>460</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>460</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>460</v>
       </c>
       <c r="S19">
         <v>13</v>
       </c>
       <c r="T19">
-        <f>($T$4*$T$3/3)*K19</f>
+        <f t="shared" si="3"/>
         <v>1073.3333333333335</v>
       </c>
       <c r="U19">
-        <f>($T$4*$T$3/3)*L19</f>
+        <f t="shared" si="4"/>
         <v>1073.3333333333335</v>
       </c>
       <c r="V19">
-        <f>($T$4*$T$3/3)*M19</f>
+        <f t="shared" si="5"/>
         <v>1073.3333333333335</v>
       </c>
       <c r="W19">
+        <f t="shared" si="16"/>
+        <v>3220.0000000000005</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="17"/>
+        <v>460.00000000000006</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>966</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="7"/>
+        <v>966</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="8"/>
-        <v>3220.0000000000005</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="9"/>
-        <v>460.00000000000006</v>
-      </c>
-      <c r="Z19">
-        <f>($T$4*$T$3)*J19</f>
         <v>966</v>
       </c>
-      <c r="AA19">
-        <f>($T$4*$T$3)*J19</f>
-        <v>966</v>
-      </c>
-      <c r="AB19">
-        <f>($T$4*$T$3)*J19</f>
-        <v>966</v>
-      </c>
       <c r="AC19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2898</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>414</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>46.000000000000057</v>
       </c>
     </row>
@@ -3058,100 +3858,100 @@
         <v>14</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D20" s="4">
+        <f t="shared" si="9"/>
+        <v>6750</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>10.074626865671641</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="E20" s="3">
-        <f>D20/$X$26</f>
-        <v>10.074626865671641</v>
-      </c>
-      <c r="F20" s="3">
-        <f>D20/$AD$26</f>
         <v>11.194029850746269</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="I20">
         <v>14</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="K20">
         <v>490</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>490</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>490</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>490</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>490</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>490</v>
       </c>
       <c r="S20">
         <v>14</v>
       </c>
       <c r="T20">
-        <f>($T$4*$T$3/3)*K20</f>
+        <f t="shared" si="3"/>
         <v>1143.3333333333335</v>
       </c>
       <c r="U20">
-        <f>($T$4*$T$3/3)*L20</f>
+        <f t="shared" si="4"/>
         <v>1143.3333333333335</v>
       </c>
       <c r="V20">
-        <f>($T$4*$T$3/3)*M20</f>
+        <f t="shared" si="5"/>
         <v>1143.3333333333335</v>
       </c>
       <c r="W20">
+        <f t="shared" si="16"/>
+        <v>3430.0000000000005</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="17"/>
+        <v>490.00000000000006</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>1029</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="7"/>
+        <v>1029</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="8"/>
-        <v>3430.0000000000005</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="9"/>
-        <v>490.00000000000006</v>
-      </c>
-      <c r="Z20">
-        <f>($T$4*$T$3)*J20</f>
         <v>1029</v>
       </c>
-      <c r="AA20">
-        <f>($T$4*$T$3)*J20</f>
-        <v>1029</v>
-      </c>
-      <c r="AB20">
-        <f>($T$4*$T$3)*J20</f>
-        <v>1029</v>
-      </c>
       <c r="AC20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3087</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>441</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>49.000000000000057</v>
       </c>
     </row>
@@ -3160,100 +3960,100 @@
         <v>15</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="D21" s="4">
+        <f t="shared" si="9"/>
+        <v>7500</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>11.194029850746269</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="E21" s="3">
-        <f>D21/$X$26</f>
-        <v>11.194029850746269</v>
-      </c>
-      <c r="F21" s="3">
-        <f>D21/$AD$26</f>
         <v>12.437810945273633</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="I21">
         <v>15</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="K21">
         <v>520</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>520</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>520</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>520</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>520</v>
       </c>
       <c r="S21">
         <v>15</v>
       </c>
       <c r="T21">
-        <f>($T$4*$T$3/3)*K21</f>
+        <f t="shared" si="3"/>
         <v>1213.3333333333335</v>
       </c>
       <c r="U21">
-        <f>($T$4*$T$3/3)*L21</f>
+        <f t="shared" si="4"/>
         <v>1213.3333333333335</v>
       </c>
       <c r="V21">
-        <f>($T$4*$T$3/3)*M21</f>
+        <f t="shared" si="5"/>
         <v>1213.3333333333335</v>
       </c>
       <c r="W21">
+        <f t="shared" si="16"/>
+        <v>3640.0000000000005</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="17"/>
+        <v>520.00000000000011</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>1092</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="7"/>
+        <v>1092</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="8"/>
-        <v>3640.0000000000005</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="9"/>
-        <v>520.00000000000011</v>
-      </c>
-      <c r="Z21">
-        <f>($T$4*$T$3)*J21</f>
         <v>1092</v>
       </c>
-      <c r="AA21">
-        <f>($T$4*$T$3)*J21</f>
-        <v>1092</v>
-      </c>
-      <c r="AB21">
-        <f>($T$4*$T$3)*J21</f>
-        <v>1092</v>
-      </c>
       <c r="AC21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3276</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>468</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>52.000000000000114</v>
       </c>
     </row>
@@ -3262,100 +4062,100 @@
         <v>16</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="D22" s="4">
+        <f t="shared" si="9"/>
+        <v>8250</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>12.313432835820896</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>8250</v>
-      </c>
-      <c r="E22" s="3">
-        <f>D22/$X$26</f>
-        <v>12.313432835820896</v>
-      </c>
-      <c r="F22" s="3">
-        <f>D22/$AD$26</f>
         <v>13.681592039800995</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="I22">
         <v>16</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="K22">
         <v>550</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>550</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>550</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>550</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>550</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>550</v>
       </c>
       <c r="S22">
         <v>16</v>
       </c>
       <c r="T22">
-        <f>($T$4*$T$3/3)*K22</f>
+        <f t="shared" si="3"/>
         <v>1283.3333333333335</v>
       </c>
       <c r="U22">
-        <f>($T$4*$T$3/3)*L22</f>
+        <f t="shared" si="4"/>
         <v>1283.3333333333335</v>
       </c>
       <c r="V22">
-        <f>($T$4*$T$3/3)*M22</f>
+        <f t="shared" si="5"/>
         <v>1283.3333333333335</v>
       </c>
       <c r="W22">
+        <f t="shared" si="16"/>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="17"/>
+        <v>550.00000000000011</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>1155</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>1155</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="8"/>
-        <v>3850.0000000000005</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="9"/>
-        <v>550.00000000000011</v>
-      </c>
-      <c r="Z22">
-        <f>($T$4*$T$3)*J22</f>
         <v>1155</v>
       </c>
-      <c r="AA22">
-        <f>($T$4*$T$3)*J22</f>
-        <v>1155</v>
-      </c>
-      <c r="AB22">
-        <f>($T$4*$T$3)*J22</f>
-        <v>1155</v>
-      </c>
       <c r="AC22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3465</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>495</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>55.000000000000114</v>
       </c>
     </row>
@@ -3364,100 +4164,100 @@
         <v>17</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="D23" s="4">
+        <f t="shared" si="9"/>
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>13.432835820895523</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="E23" s="3">
-        <f>D23/$X$26</f>
-        <v>13.432835820895523</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23/$AD$26</f>
         <v>14.925373134328359</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="I23">
         <v>17</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="K23">
         <v>580</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>580</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>580</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>580</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>580</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>580</v>
       </c>
       <c r="S23">
         <v>17</v>
       </c>
       <c r="T23">
-        <f>($T$4*$T$3/3)*K23</f>
+        <f t="shared" si="3"/>
         <v>1353.3333333333335</v>
       </c>
       <c r="U23">
-        <f>($T$4*$T$3/3)*L23</f>
+        <f t="shared" si="4"/>
         <v>1353.3333333333335</v>
       </c>
       <c r="V23">
-        <f>($T$4*$T$3/3)*M23</f>
+        <f t="shared" si="5"/>
         <v>1353.3333333333335</v>
       </c>
       <c r="W23">
+        <f t="shared" si="16"/>
+        <v>4060.0000000000005</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="17"/>
+        <v>580.00000000000011</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>1218</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="7"/>
+        <v>1218</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="8"/>
-        <v>4060.0000000000005</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="9"/>
-        <v>580.00000000000011</v>
-      </c>
-      <c r="Z23">
-        <f>($T$4*$T$3)*J23</f>
         <v>1218</v>
       </c>
-      <c r="AA23">
-        <f>($T$4*$T$3)*J23</f>
-        <v>1218</v>
-      </c>
-      <c r="AB23">
-        <f>($T$4*$T$3)*J23</f>
-        <v>1218</v>
-      </c>
       <c r="AC23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3654</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>522</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>58.000000000000114</v>
       </c>
     </row>
@@ -3466,100 +4266,100 @@
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>9750</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>14.552238805970148</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>9750</v>
-      </c>
-      <c r="E24" s="3">
-        <f>D24/$X$26</f>
-        <v>14.552238805970148</v>
-      </c>
-      <c r="F24" s="3">
-        <f>D24/$AD$26</f>
         <v>16.169154228855721</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="I24">
         <v>18</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="K24">
         <v>610</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>610</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>610</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>610</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>610</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>610</v>
       </c>
       <c r="S24">
         <v>18</v>
       </c>
       <c r="T24">
-        <f>($T$4*$T$3/3)*K24</f>
+        <f t="shared" si="3"/>
         <v>1423.3333333333335</v>
       </c>
       <c r="U24">
-        <f>($T$4*$T$3/3)*L24</f>
+        <f t="shared" si="4"/>
         <v>1423.3333333333335</v>
       </c>
       <c r="V24">
-        <f>($T$4*$T$3/3)*M24</f>
+        <f t="shared" si="5"/>
         <v>1423.3333333333335</v>
       </c>
       <c r="W24">
+        <f t="shared" si="16"/>
+        <v>4270</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="17"/>
+        <v>610</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>1281</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="7"/>
+        <v>1281</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="8"/>
-        <v>4270</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="9"/>
-        <v>610</v>
-      </c>
-      <c r="Z24">
-        <f>($T$4*$T$3)*J24</f>
         <v>1281</v>
       </c>
-      <c r="AA24">
-        <f>($T$4*$T$3)*J24</f>
-        <v>1281</v>
-      </c>
-      <c r="AB24">
-        <f>($T$4*$T$3)*J24</f>
-        <v>1281</v>
-      </c>
       <c r="AC24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3843</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>549</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
     </row>
@@ -3568,100 +4368,100 @@
         <v>19</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="D25" s="4">
+        <f t="shared" si="9"/>
+        <v>10500</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>15.671641791044776</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="E25" s="3">
-        <f>D25/$X$26</f>
-        <v>15.671641791044776</v>
-      </c>
-      <c r="F25" s="3">
-        <f>D25/$AD$26</f>
         <v>17.412935323383085</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="I25">
         <v>19</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="K25">
         <v>640</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>640</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>640</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>640</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>640</v>
       </c>
       <c r="S25">
         <v>19</v>
       </c>
       <c r="T25">
-        <f>($T$4*$T$3/3)*K25</f>
+        <f t="shared" si="3"/>
         <v>1493.3333333333335</v>
       </c>
       <c r="U25">
-        <f>($T$4*$T$3/3)*L25</f>
+        <f t="shared" si="4"/>
         <v>1493.3333333333335</v>
       </c>
       <c r="V25">
-        <f>($T$4*$T$3/3)*M25</f>
+        <f t="shared" si="5"/>
         <v>1493.3333333333335</v>
       </c>
       <c r="W25">
+        <f t="shared" si="16"/>
+        <v>4480</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="17"/>
+        <v>640</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>1344</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="7"/>
+        <v>1344</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="8"/>
-        <v>4480</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="9"/>
-        <v>640</v>
-      </c>
-      <c r="Z25">
-        <f>($T$4*$T$3)*J25</f>
         <v>1344</v>
       </c>
-      <c r="AA25">
-        <f>($T$4*$T$3)*J25</f>
-        <v>1344</v>
-      </c>
-      <c r="AB25">
-        <f>($T$4*$T$3)*J25</f>
-        <v>1344</v>
-      </c>
       <c r="AC25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4032</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>576</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
     </row>
@@ -3674,96 +4474,96 @@
         <v>250</v>
       </c>
       <c r="D26" s="4">
+        <f t="shared" si="9"/>
+        <v>11250</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>16.791044776119403</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>11250</v>
-      </c>
-      <c r="E26" s="3">
-        <f>D26/$X$26</f>
-        <v>16.791044776119403</v>
-      </c>
-      <c r="F26" s="3">
-        <f>D26/$AD$26</f>
         <v>18.656716417910449</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="K26">
         <v>670</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>670</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>670</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>670</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>670</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>670</v>
       </c>
       <c r="S26">
         <v>20</v>
       </c>
       <c r="T26">
-        <f>($T$4*$T$3/3)*K26</f>
+        <f t="shared" si="3"/>
         <v>1563.3333333333335</v>
       </c>
       <c r="U26">
-        <f>($T$4*$T$3/3)*L26</f>
+        <f t="shared" si="4"/>
         <v>1563.3333333333335</v>
       </c>
       <c r="V26">
-        <f>($T$4*$T$3/3)*M26</f>
+        <f t="shared" si="5"/>
         <v>1563.3333333333335</v>
       </c>
       <c r="W26">
+        <f t="shared" si="16"/>
+        <v>4690</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="17"/>
+        <v>670</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="7"/>
+        <v>1407</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="8"/>
-        <v>4690</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="9"/>
-        <v>670</v>
-      </c>
-      <c r="Z26">
-        <f>($T$4*$T$3)*J26</f>
         <v>1407</v>
       </c>
-      <c r="AA26">
-        <f>($T$4*$T$3)*J26</f>
-        <v>1407</v>
-      </c>
-      <c r="AB26">
-        <f>($T$4*$T$3)*J26</f>
-        <v>1407</v>
-      </c>
       <c r="AC26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4221</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>603</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
     </row>
@@ -3772,23 +4572,23 @@
         <v>21</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:C90" si="14">C17+50</f>
+        <f t="shared" ref="C27:C50" si="22">C17+50</f>
         <v>250</v>
       </c>
       <c r="D27" s="4">
+        <f t="shared" si="9"/>
+        <v>12000</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>17.910447761194028</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E27" s="3">
-        <f>D27/$X$26</f>
-        <v>17.910447761194028</v>
-      </c>
-      <c r="F27" s="3">
-        <f>D27/$AD$26</f>
         <v>19.900497512437809</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="I27">
@@ -3798,47 +4598,47 @@
         <v>21</v>
       </c>
       <c r="T27">
-        <f>($T$4*$T$3/3)*K27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>($T$4*$T$3/3)*L27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>($T$4*$T$3/3)*M27</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X27">
-        <f t="shared" si="9"/>
+      <c r="AC27">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z27">
-        <f>($T$4*$T$3)*J27</f>
+      <c r="AD27">
+        <f t="shared" ref="AD27:AD30" si="23">AC27/21</f>
         <v>0</v>
       </c>
-      <c r="AA27">
-        <f>($T$4*$T$3)*J27</f>
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <f>($T$4*$T$3)*J27</f>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" ref="AD8:AD30" si="15">AC27/21</f>
-        <v>0</v>
-      </c>
       <c r="AE27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -3847,23 +4647,23 @@
         <v>22</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="D28" s="4">
+        <f t="shared" si="9"/>
+        <v>12750</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>19.029850746268657</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>12750</v>
-      </c>
-      <c r="E28" s="3">
-        <f>D28/$X$26</f>
-        <v>19.029850746268657</v>
-      </c>
-      <c r="F28" s="3">
-        <f>D28/$AD$26</f>
         <v>21.144278606965173</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="I28">
@@ -3873,47 +4673,47 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <f>($T$4*$T$3/3)*K28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>($T$4*$T$3/3)*L28</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>($T$4*$T$3/3)*M28</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X28">
-        <f t="shared" si="9"/>
+      <c r="AC28">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z28">
-        <f>($T$4*$T$3)*J28</f>
+      <c r="AD28">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA28">
-        <f>($T$4*$T$3)*J28</f>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f>($T$4*$T$3)*J28</f>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AE28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -3922,23 +4722,23 @@
         <v>23</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="D29" s="4">
+        <f t="shared" si="9"/>
+        <v>13500</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>20.149253731343283</v>
+      </c>
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>13500</v>
-      </c>
-      <c r="E29" s="3">
-        <f>D29/$X$26</f>
-        <v>20.149253731343283</v>
-      </c>
-      <c r="F29" s="3">
-        <f>D29/$AD$26</f>
         <v>22.388059701492537</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="I29">
@@ -3948,47 +4748,47 @@
         <v>23</v>
       </c>
       <c r="T29">
-        <f>($T$4*$T$3/3)*K29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>($T$4*$T$3/3)*L29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>($T$4*$T$3/3)*M29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X29">
-        <f t="shared" si="9"/>
+      <c r="AC29">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z29">
-        <f>($T$4*$T$3)*J29</f>
+      <c r="AD29">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA29">
-        <f>($T$4*$T$3)*J29</f>
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <f>($T$4*$T$3)*J29</f>
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AE29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -3997,23 +4797,23 @@
         <v>24</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="D30" s="4">
+        <f t="shared" si="9"/>
+        <v>14250</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>21.268656716417912</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>14250</v>
-      </c>
-      <c r="E30" s="3">
-        <f>D30/$X$26</f>
-        <v>21.268656716417912</v>
-      </c>
-      <c r="F30" s="3">
-        <f>D30/$AD$26</f>
         <v>23.631840796019901</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="I30">
@@ -4023,47 +4823,47 @@
         <v>24</v>
       </c>
       <c r="T30">
-        <f>($T$4*$T$3/3)*K30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>($T$4*$T$3/3)*L30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>($T$4*$T$3/3)*M30</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X30">
-        <f t="shared" si="9"/>
+      <c r="AC30">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z30">
-        <f>($T$4*$T$3)*J30</f>
+      <c r="AD30">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA30">
-        <f>($T$4*$T$3)*J30</f>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f>($T$4*$T$3)*J30</f>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AE30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4072,23 +4872,23 @@
         <v>25</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D31" s="4">
+        <f t="shared" si="9"/>
+        <v>15150</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>22.611940298507463</v>
+      </c>
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>15150</v>
-      </c>
-      <c r="E31" s="3">
-        <f>D31/$X$26</f>
-        <v>22.611940298507463</v>
-      </c>
-      <c r="F31" s="3">
-        <f>D31/$AD$26</f>
         <v>25.124378109452735</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>286</v>
       </c>
     </row>
@@ -4097,23 +4897,23 @@
         <v>26</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D32" s="4">
+        <f t="shared" si="9"/>
+        <v>16050</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>23.955223880597014</v>
+      </c>
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
-        <v>16050</v>
-      </c>
-      <c r="E32" s="3">
-        <f>D32/$X$26</f>
-        <v>23.955223880597014</v>
-      </c>
-      <c r="F32" s="3">
-        <f>D32/$AD$26</f>
         <v>26.616915422885572</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
     </row>
@@ -4122,23 +4922,23 @@
         <v>27</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D33" s="4">
+        <f t="shared" si="9"/>
+        <v>16950</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>25.298507462686569</v>
+      </c>
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>16950</v>
-      </c>
-      <c r="E33" s="3">
-        <f>D33/$X$26</f>
-        <v>25.298507462686569</v>
-      </c>
-      <c r="F33" s="3">
-        <f>D33/$AD$26</f>
         <v>28.109452736318406</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>308</v>
       </c>
     </row>
@@ -4147,23 +4947,23 @@
         <v>28</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D34" s="4">
+        <f t="shared" si="9"/>
+        <v>17850</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>26.64179104477612</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>17850</v>
-      </c>
-      <c r="E34" s="3">
-        <f>D34/$X$26</f>
-        <v>26.64179104477612</v>
-      </c>
-      <c r="F34" s="3">
-        <f>D34/$AD$26</f>
         <v>29.601990049751244</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>319</v>
       </c>
     </row>
@@ -4172,23 +4972,23 @@
         <v>29</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D35" s="4">
+        <f t="shared" si="9"/>
+        <v>18750</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>27.985074626865671</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
-        <v>18750</v>
-      </c>
-      <c r="E35" s="3">
-        <f>D35/$X$26</f>
-        <v>27.985074626865671</v>
-      </c>
-      <c r="F35" s="3">
-        <f>D35/$AD$26</f>
         <v>31.094527363184081</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
     </row>
@@ -4197,23 +4997,23 @@
         <v>30</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D36" s="4">
+        <f t="shared" si="9"/>
+        <v>19650</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>29.328358208955223</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
-        <v>19650</v>
-      </c>
-      <c r="E36" s="3">
-        <f>D36/$X$26</f>
-        <v>29.328358208955223</v>
-      </c>
-      <c r="F36" s="3">
-        <f>D36/$AD$26</f>
         <v>32.587064676616919</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>341</v>
       </c>
     </row>
@@ -4222,23 +5022,23 @@
         <v>31</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D37" s="4">
+        <f t="shared" si="9"/>
+        <v>20550</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>30.671641791044777</v>
+      </c>
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
-        <v>20550</v>
-      </c>
-      <c r="E37" s="3">
-        <f>D37/$X$26</f>
-        <v>30.671641791044777</v>
-      </c>
-      <c r="F37" s="3">
-        <f>D37/$AD$26</f>
         <v>34.079601990049753</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
     </row>
@@ -4247,23 +5047,23 @@
         <v>32</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>21450</v>
       </c>
       <c r="E38" s="3">
-        <f>D38/$X$26</f>
+        <f t="shared" ref="E38:E69" si="24">D38/$X$26</f>
         <v>32.014925373134325</v>
       </c>
       <c r="F38" s="3">
-        <f>D38/$AD$26</f>
+        <f t="shared" ref="F38:F69" si="25">D38/$AD$26</f>
         <v>35.572139303482587</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>363</v>
       </c>
     </row>
@@ -4272,23 +5072,23 @@
         <v>33</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>22350</v>
       </c>
       <c r="E39" s="3">
-        <f>D39/$X$26</f>
+        <f t="shared" si="24"/>
         <v>33.35820895522388</v>
       </c>
       <c r="F39" s="3">
-        <f>D39/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>37.06467661691542</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>374</v>
       </c>
     </row>
@@ -4297,23 +5097,23 @@
         <v>34</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>23250</v>
       </c>
       <c r="E40" s="3">
-        <f>D40/$X$26</f>
+        <f t="shared" si="24"/>
         <v>34.701492537313435</v>
       </c>
       <c r="F40" s="3">
-        <f>D40/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>38.557213930348261</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
     </row>
@@ -4322,23 +5122,23 @@
         <v>35</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>24300</v>
       </c>
       <c r="E41" s="3">
-        <f>D41/$X$26</f>
+        <f t="shared" si="24"/>
         <v>36.268656716417908</v>
       </c>
       <c r="F41" s="3">
-        <f>D41/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>40.298507462686565</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
     </row>
@@ -4347,23 +5147,23 @@
         <v>36</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>25350</v>
       </c>
       <c r="E42" s="3">
-        <f>D42/$X$26</f>
+        <f t="shared" si="24"/>
         <v>37.835820895522389</v>
       </c>
       <c r="F42" s="3">
-        <f>D42/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>42.039800995024876</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>407</v>
       </c>
     </row>
@@ -4372,23 +5172,23 @@
         <v>37</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>26400</v>
       </c>
       <c r="E43" s="3">
-        <f>D43/$X$26</f>
+        <f t="shared" si="24"/>
         <v>39.402985074626862</v>
       </c>
       <c r="F43" s="3">
-        <f>D43/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>43.781094527363187</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>418</v>
       </c>
     </row>
@@ -4397,23 +5197,23 @@
         <v>38</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>27450</v>
       </c>
       <c r="E44" s="3">
-        <f>D44/$X$26</f>
+        <f t="shared" si="24"/>
         <v>40.970149253731343</v>
       </c>
       <c r="F44" s="3">
-        <f>D44/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>45.522388059701491</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>429</v>
       </c>
     </row>
@@ -4422,23 +5222,23 @@
         <v>39</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>28500</v>
       </c>
       <c r="E45" s="3">
-        <f>D45/$X$26</f>
+        <f t="shared" si="24"/>
         <v>42.537313432835823</v>
       </c>
       <c r="F45" s="3">
-        <f>D45/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>47.263681592039802</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
@@ -4447,23 +5247,23 @@
         <v>40</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>29550</v>
       </c>
       <c r="E46" s="3">
-        <f>D46/$X$26</f>
+        <f t="shared" si="24"/>
         <v>44.104477611940297</v>
       </c>
       <c r="F46" s="3">
-        <f>D46/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>49.004975124378106</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>451</v>
       </c>
     </row>
@@ -4472,23 +5272,23 @@
         <v>41</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>30600</v>
       </c>
       <c r="E47" s="3">
-        <f>D47/$X$26</f>
+        <f t="shared" si="24"/>
         <v>45.671641791044777</v>
       </c>
       <c r="F47" s="3">
-        <f>D47/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>50.746268656716417</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>462</v>
       </c>
     </row>
@@ -4497,23 +5297,23 @@
         <v>42</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>31650</v>
       </c>
       <c r="E48" s="3">
-        <f>D48/$X$26</f>
+        <f t="shared" si="24"/>
         <v>47.238805970149251</v>
       </c>
       <c r="F48" s="3">
-        <f>D48/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>52.487562189054728</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>473</v>
       </c>
     </row>
@@ -4522,23 +5322,23 @@
         <v>43</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>32700</v>
       </c>
       <c r="E49" s="3">
-        <f>D49/$X$26</f>
+        <f t="shared" si="24"/>
         <v>48.805970149253731</v>
       </c>
       <c r="F49" s="3">
-        <f>D49/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>54.228855721393032</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
@@ -4547,23 +5347,23 @@
         <v>44</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>33750</v>
       </c>
       <c r="E50" s="3">
-        <f>D50/$X$26</f>
+        <f t="shared" si="24"/>
         <v>50.373134328358212</v>
       </c>
       <c r="F50" s="3">
-        <f>D50/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>55.970149253731343</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>495</v>
       </c>
     </row>
@@ -4576,19 +5376,19 @@
         <v>350</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>34800</v>
       </c>
       <c r="E51" s="3">
-        <f>D51/$X$26</f>
+        <f t="shared" si="24"/>
         <v>51.940298507462686</v>
       </c>
       <c r="F51" s="3">
-        <f>D51/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>57.711442786069654</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>506</v>
       </c>
     </row>
@@ -4597,23 +5397,23 @@
         <v>46</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" ref="C52:C105" si="16">C37+50</f>
+        <f t="shared" ref="C52:C105" si="26">C37+50</f>
         <v>350</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>35850</v>
       </c>
       <c r="E52" s="3">
-        <f>D52/$X$26</f>
+        <f t="shared" si="24"/>
         <v>53.507462686567166</v>
       </c>
       <c r="F52" s="3">
-        <f>D52/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>59.452736318407958</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>517</v>
       </c>
     </row>
@@ -4622,23 +5422,23 @@
         <v>47</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>350</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>36900</v>
       </c>
       <c r="E53" s="3">
-        <f>D53/$X$26</f>
+        <f t="shared" si="24"/>
         <v>55.07462686567164</v>
       </c>
       <c r="F53" s="3">
-        <f>D53/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>61.194029850746269</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>528</v>
       </c>
     </row>
@@ -4647,23 +5447,23 @@
         <v>48</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>350</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>37950</v>
       </c>
       <c r="E54" s="3">
-        <f>D54/$X$26</f>
+        <f t="shared" si="24"/>
         <v>56.64179104477612</v>
       </c>
       <c r="F54" s="3">
-        <f>D54/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>62.93532338308458</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>539</v>
       </c>
     </row>
@@ -4672,23 +5472,23 @@
         <v>49</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>350</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>39000</v>
       </c>
       <c r="E55" s="3">
-        <f>D55/$X$26</f>
+        <f t="shared" si="24"/>
         <v>58.208955223880594</v>
       </c>
       <c r="F55" s="3">
-        <f>D55/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>64.676616915422883</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
     </row>
@@ -4697,23 +5497,23 @@
         <v>50</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>40200</v>
       </c>
       <c r="E56" s="3">
-        <f>D56/$X$26</f>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="F56" s="3">
-        <f>D56/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>66.666666666666671</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>561</v>
       </c>
     </row>
@@ -4722,23 +5522,23 @@
         <v>51</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>41400</v>
       </c>
       <c r="E57" s="3">
-        <f>D57/$X$26</f>
+        <f t="shared" si="24"/>
         <v>61.791044776119406</v>
       </c>
       <c r="F57" s="3">
-        <f>D57/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>68.656716417910445</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>572</v>
       </c>
     </row>
@@ -4747,23 +5547,23 @@
         <v>52</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>42600</v>
       </c>
       <c r="E58" s="3">
-        <f>D58/$X$26</f>
+        <f t="shared" si="24"/>
         <v>63.582089552238806</v>
       </c>
       <c r="F58" s="3">
-        <f>D58/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>70.646766169154233</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>583</v>
       </c>
     </row>
@@ -4772,23 +5572,23 @@
         <v>53</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>43800</v>
       </c>
       <c r="E59" s="3">
-        <f>D59/$X$26</f>
+        <f t="shared" si="24"/>
         <v>65.373134328358205</v>
       </c>
       <c r="F59" s="3">
-        <f>D59/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>72.636815920398007</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>594</v>
       </c>
     </row>
@@ -4797,23 +5597,23 @@
         <v>54</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>45000</v>
       </c>
       <c r="E60" s="3">
-        <f>D60/$X$26</f>
+        <f t="shared" si="24"/>
         <v>67.164179104477611</v>
       </c>
       <c r="F60" s="3">
-        <f>D60/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>74.626865671641795</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>605</v>
       </c>
     </row>
@@ -4822,23 +5622,23 @@
         <v>55</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>46200</v>
       </c>
       <c r="E61" s="3">
-        <f>D61/$X$26</f>
+        <f t="shared" si="24"/>
         <v>68.955223880597018</v>
       </c>
       <c r="F61" s="3">
-        <f>D61/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>76.616915422885569</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>616</v>
       </c>
     </row>
@@ -4847,23 +5647,23 @@
         <v>56</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>47400</v>
       </c>
       <c r="E62" s="3">
-        <f>D62/$X$26</f>
+        <f t="shared" si="24"/>
         <v>70.746268656716424</v>
       </c>
       <c r="F62" s="3">
-        <f>D62/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>78.606965174129357</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>627</v>
       </c>
     </row>
@@ -4872,23 +5672,23 @@
         <v>57</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>48600</v>
       </c>
       <c r="E63" s="3">
-        <f>D63/$X$26</f>
+        <f t="shared" si="24"/>
         <v>72.537313432835816</v>
       </c>
       <c r="F63" s="3">
-        <f>D63/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>80.597014925373131</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>638</v>
       </c>
     </row>
@@ -4897,23 +5697,23 @@
         <v>58</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>49800</v>
       </c>
       <c r="E64" s="3">
-        <f>D64/$X$26</f>
+        <f t="shared" si="24"/>
         <v>74.328358208955223</v>
       </c>
       <c r="F64" s="3">
-        <f>D64/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>82.587064676616919</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>649</v>
       </c>
     </row>
@@ -4922,23 +5722,23 @@
         <v>59</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>51000</v>
       </c>
       <c r="E65" s="3">
-        <f>D65/$X$26</f>
+        <f t="shared" si="24"/>
         <v>76.119402985074629</v>
       </c>
       <c r="F65" s="3">
-        <f>D65/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>84.577114427860693</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
     </row>
@@ -4947,23 +5747,23 @@
         <v>60</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>52200</v>
       </c>
       <c r="E66" s="3">
-        <f>D66/$X$26</f>
+        <f t="shared" si="24"/>
         <v>77.910447761194035</v>
       </c>
       <c r="F66" s="3">
-        <f>D66/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>86.567164179104481</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>671</v>
       </c>
     </row>
@@ -4972,23 +5772,23 @@
         <v>61</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>53400</v>
       </c>
       <c r="E67" s="3">
-        <f>D67/$X$26</f>
+        <f t="shared" si="24"/>
         <v>79.701492537313428</v>
       </c>
       <c r="F67" s="3">
-        <f>D67/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>88.557213930348254</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>682</v>
       </c>
     </row>
@@ -4997,23 +5797,23 @@
         <v>62</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>54600</v>
       </c>
       <c r="E68" s="3">
-        <f>D68/$X$26</f>
+        <f t="shared" si="24"/>
         <v>81.492537313432834</v>
       </c>
       <c r="F68" s="3">
-        <f>D68/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>90.547263681592042</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>693</v>
       </c>
     </row>
@@ -5022,23 +5822,23 @@
         <v>63</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>55800</v>
       </c>
       <c r="E69" s="3">
-        <f>D69/$X$26</f>
+        <f t="shared" si="24"/>
         <v>83.28358208955224</v>
       </c>
       <c r="F69" s="3">
-        <f>D69/$AD$26</f>
+        <f t="shared" si="25"/>
         <v>92.537313432835816</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
     </row>
@@ -5047,23 +5847,23 @@
         <v>64</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>57000</v>
       </c>
       <c r="E70" s="3">
-        <f>D70/$X$26</f>
+        <f t="shared" ref="E70:E101" si="27">D70/$X$26</f>
         <v>85.074626865671647</v>
       </c>
       <c r="F70" s="3">
-        <f>D70/$AD$26</f>
+        <f t="shared" ref="F70:F105" si="28">D70/$AD$26</f>
         <v>94.527363184079604</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>715</v>
       </c>
     </row>
@@ -5072,23 +5872,23 @@
         <v>65</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>58350</v>
       </c>
       <c r="E71" s="3">
-        <f>D71/$X$26</f>
+        <f t="shared" si="27"/>
         <v>87.089552238805965</v>
       </c>
       <c r="F71" s="3">
-        <f>D71/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>96.766169154228862</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" ref="G71:G105" si="17">(B71+1)*$G$4</f>
+        <f t="shared" ref="G71:G105" si="29">(B71+1)*$G$4</f>
         <v>726</v>
       </c>
     </row>
@@ -5097,23 +5897,23 @@
         <v>66</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ref="D72:D105" si="18">D71+C72*3</f>
+        <f t="shared" ref="D72:D105" si="30">D71+C72*3</f>
         <v>59700</v>
       </c>
       <c r="E72" s="3">
-        <f>D72/$X$26</f>
+        <f t="shared" si="27"/>
         <v>89.104477611940297</v>
       </c>
       <c r="F72" s="3">
-        <f>D72/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>99.004975124378106</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>737</v>
       </c>
     </row>
@@ -5122,23 +5922,23 @@
         <v>67</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>61050</v>
       </c>
       <c r="E73" s="3">
-        <f>D73/$X$26</f>
+        <f t="shared" si="27"/>
         <v>91.119402985074629</v>
       </c>
       <c r="F73" s="3">
-        <f>D73/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>101.24378109452736</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>748</v>
       </c>
     </row>
@@ -5147,23 +5947,23 @@
         <v>68</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>62400</v>
       </c>
       <c r="E74" s="3">
-        <f>D74/$X$26</f>
+        <f t="shared" si="27"/>
         <v>93.134328358208961</v>
       </c>
       <c r="F74" s="3">
-        <f>D74/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>103.48258706467662</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>759</v>
       </c>
     </row>
@@ -5172,23 +5972,23 @@
         <v>69</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>63750</v>
       </c>
       <c r="E75" s="3">
-        <f>D75/$X$26</f>
+        <f t="shared" si="27"/>
         <v>95.149253731343279</v>
       </c>
       <c r="F75" s="3">
-        <f>D75/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>105.72139303482587</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>770</v>
       </c>
     </row>
@@ -5197,23 +5997,23 @@
         <v>70</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>65100</v>
       </c>
       <c r="E76" s="3">
-        <f>D76/$X$26</f>
+        <f t="shared" si="27"/>
         <v>97.164179104477611</v>
       </c>
       <c r="F76" s="3">
-        <f>D76/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>107.96019900497512</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>781</v>
       </c>
     </row>
@@ -5222,23 +6022,23 @@
         <v>71</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>66450</v>
       </c>
       <c r="E77" s="3">
-        <f>D77/$X$26</f>
+        <f t="shared" si="27"/>
         <v>99.179104477611943</v>
       </c>
       <c r="F77" s="3">
-        <f>D77/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>110.19900497512438</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>792</v>
       </c>
     </row>
@@ -5247,23 +6047,23 @@
         <v>72</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>67800</v>
       </c>
       <c r="E78" s="3">
-        <f>D78/$X$26</f>
+        <f t="shared" si="27"/>
         <v>101.19402985074628</v>
       </c>
       <c r="F78" s="3">
-        <f>D78/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>112.43781094527363</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>803</v>
       </c>
     </row>
@@ -5272,23 +6072,23 @@
         <v>73</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>69150</v>
       </c>
       <c r="E79" s="3">
-        <f>D79/$X$26</f>
+        <f t="shared" si="27"/>
         <v>103.20895522388059</v>
       </c>
       <c r="F79" s="3">
-        <f>D79/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>114.67661691542288</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>814</v>
       </c>
     </row>
@@ -5297,23 +6097,23 @@
         <v>74</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>70500</v>
       </c>
       <c r="E80" s="3">
-        <f>D80/$X$26</f>
+        <f t="shared" si="27"/>
         <v>105.22388059701493</v>
       </c>
       <c r="F80" s="3">
-        <f>D80/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>116.91542288557214</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>825</v>
       </c>
     </row>
@@ -5322,23 +6122,23 @@
         <v>75</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>71850</v>
       </c>
       <c r="E81" s="3">
-        <f>D81/$X$26</f>
+        <f t="shared" si="27"/>
         <v>107.23880597014926</v>
       </c>
       <c r="F81" s="3">
-        <f>D81/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>119.1542288557214</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>836</v>
       </c>
     </row>
@@ -5347,23 +6147,23 @@
         <v>76</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>73200</v>
       </c>
       <c r="E82" s="3">
-        <f>D82/$X$26</f>
+        <f t="shared" si="27"/>
         <v>109.25373134328358</v>
       </c>
       <c r="F82" s="3">
-        <f>D82/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>121.39303482587064</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>847</v>
       </c>
     </row>
@@ -5372,23 +6172,23 @@
         <v>77</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>74550</v>
       </c>
       <c r="E83" s="3">
-        <f>D83/$X$26</f>
+        <f t="shared" si="27"/>
         <v>111.26865671641791</v>
       </c>
       <c r="F83" s="3">
-        <f>D83/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>123.6318407960199</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>858</v>
       </c>
     </row>
@@ -5397,23 +6197,23 @@
         <v>78</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>75900</v>
       </c>
       <c r="E84" s="3">
-        <f>D84/$X$26</f>
+        <f t="shared" si="27"/>
         <v>113.28358208955224</v>
       </c>
       <c r="F84" s="3">
-        <f>D84/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>125.87064676616916</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>869</v>
       </c>
     </row>
@@ -5422,23 +6222,23 @@
         <v>79</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>77250</v>
       </c>
       <c r="E85" s="3">
-        <f>D85/$X$26</f>
+        <f t="shared" si="27"/>
         <v>115.29850746268657</v>
       </c>
       <c r="F85" s="3">
-        <f>D85/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>128.10945273631842</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>880</v>
       </c>
     </row>
@@ -5447,23 +6247,23 @@
         <v>80</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>78750</v>
       </c>
       <c r="E86" s="3">
-        <f>D86/$X$26</f>
+        <f t="shared" si="27"/>
         <v>117.53731343283582</v>
       </c>
       <c r="F86" s="3">
-        <f>D86/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>130.59701492537314</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>891</v>
       </c>
     </row>
@@ -5472,23 +6272,23 @@
         <v>81</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>80250</v>
       </c>
       <c r="E87" s="3">
-        <f>D87/$X$26</f>
+        <f t="shared" si="27"/>
         <v>119.77611940298507</v>
       </c>
       <c r="F87" s="3">
-        <f>D87/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>133.08457711442787</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>902</v>
       </c>
     </row>
@@ -5497,23 +6297,23 @@
         <v>82</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>81750</v>
       </c>
       <c r="E88" s="3">
-        <f>D88/$X$26</f>
+        <f t="shared" si="27"/>
         <v>122.01492537313433</v>
       </c>
       <c r="F88" s="3">
-        <f>D88/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>135.5721393034826</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>913</v>
       </c>
     </row>
@@ -5522,23 +6322,23 @@
         <v>83</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>83250</v>
       </c>
       <c r="E89" s="3">
-        <f>D89/$X$26</f>
+        <f t="shared" si="27"/>
         <v>124.25373134328358</v>
       </c>
       <c r="F89" s="3">
-        <f>D89/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>138.0597014925373</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>924</v>
       </c>
     </row>
@@ -5547,23 +6347,23 @@
         <v>84</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>84750</v>
       </c>
       <c r="E90" s="3">
-        <f>D90/$X$26</f>
+        <f t="shared" si="27"/>
         <v>126.49253731343283</v>
       </c>
       <c r="F90" s="3">
-        <f>D90/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>140.54726368159203</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>935</v>
       </c>
     </row>
@@ -5572,23 +6372,23 @@
         <v>85</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>86250</v>
       </c>
       <c r="E91" s="3">
-        <f>D91/$X$26</f>
+        <f t="shared" si="27"/>
         <v>128.73134328358208</v>
       </c>
       <c r="F91" s="3">
-        <f>D91/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>143.03482587064676</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>946</v>
       </c>
     </row>
@@ -5597,23 +6397,23 @@
         <v>86</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>87750</v>
       </c>
       <c r="E92" s="3">
-        <f>D92/$X$26</f>
+        <f t="shared" si="27"/>
         <v>130.97014925373134</v>
       </c>
       <c r="F92" s="3">
-        <f>D92/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>145.52238805970148</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>957</v>
       </c>
     </row>
@@ -5622,23 +6422,23 @@
         <v>87</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>89250</v>
       </c>
       <c r="E93" s="3">
-        <f>D93/$X$26</f>
+        <f t="shared" si="27"/>
         <v>133.20895522388059</v>
       </c>
       <c r="F93" s="3">
-        <f>D93/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>148.00995024875621</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>968</v>
       </c>
     </row>
@@ -5647,23 +6447,23 @@
         <v>88</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>90750</v>
       </c>
       <c r="E94" s="3">
-        <f>D94/$X$26</f>
+        <f t="shared" si="27"/>
         <v>135.44776119402985</v>
       </c>
       <c r="F94" s="3">
-        <f>D94/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>150.49751243781094</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>979</v>
       </c>
     </row>
@@ -5672,23 +6472,23 @@
         <v>89</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>92250</v>
       </c>
       <c r="E95" s="3">
-        <f>D95/$X$26</f>
+        <f t="shared" si="27"/>
         <v>137.68656716417911</v>
       </c>
       <c r="F95" s="3">
-        <f>D95/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>152.98507462686567</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>990</v>
       </c>
     </row>
@@ -5697,23 +6497,23 @@
         <v>90</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>93750</v>
       </c>
       <c r="E96" s="3">
-        <f>D96/$X$26</f>
+        <f t="shared" si="27"/>
         <v>139.92537313432837</v>
       </c>
       <c r="F96" s="3">
-        <f>D96/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>155.4726368159204</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1001</v>
       </c>
     </row>
@@ -5722,23 +6522,23 @@
         <v>91</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>95250</v>
       </c>
       <c r="E97" s="3">
-        <f>D97/$X$26</f>
+        <f t="shared" si="27"/>
         <v>142.16417910447763</v>
       </c>
       <c r="F97" s="3">
-        <f>D97/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>157.96019900497512</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1012</v>
       </c>
     </row>
@@ -5747,23 +6547,23 @@
         <v>92</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>96750</v>
       </c>
       <c r="E98" s="3">
-        <f>D98/$X$26</f>
+        <f t="shared" si="27"/>
         <v>144.40298507462686</v>
       </c>
       <c r="F98" s="3">
-        <f>D98/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>160.44776119402985</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1023</v>
       </c>
     </row>
@@ -5772,23 +6572,23 @@
         <v>93</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>98250</v>
       </c>
       <c r="E99" s="3">
-        <f>D99/$X$26</f>
+        <f t="shared" si="27"/>
         <v>146.64179104477611</v>
       </c>
       <c r="F99" s="3">
-        <f>D99/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>162.93532338308458</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1034</v>
       </c>
     </row>
@@ -5797,23 +6597,23 @@
         <v>94</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>99750</v>
       </c>
       <c r="E100" s="3">
-        <f>D100/$X$26</f>
+        <f t="shared" si="27"/>
         <v>148.88059701492537</v>
       </c>
       <c r="F100" s="3">
-        <f>D100/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>165.42288557213931</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1045</v>
       </c>
     </row>
@@ -5822,23 +6622,23 @@
         <v>95</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>101400</v>
       </c>
       <c r="E101" s="3">
-        <f>D101/$X$26</f>
+        <f t="shared" si="27"/>
         <v>151.34328358208955</v>
       </c>
       <c r="F101" s="3">
-        <f>D101/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>168.15920398009951</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1056</v>
       </c>
     </row>
@@ -5847,23 +6647,23 @@
         <v>96</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>103050</v>
       </c>
       <c r="E102" s="3">
-        <f>D102/$X$26</f>
+        <f t="shared" ref="E102:E133" si="31">D102/$X$26</f>
         <v>153.80597014925374</v>
       </c>
       <c r="F102" s="3">
-        <f>D102/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>170.8955223880597</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1067</v>
       </c>
     </row>
@@ -5872,23 +6672,23 @@
         <v>97</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>104700</v>
       </c>
       <c r="E103" s="3">
-        <f>D103/$X$26</f>
+        <f t="shared" si="31"/>
         <v>156.26865671641792</v>
       </c>
       <c r="F103" s="3">
-        <f>D103/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>173.6318407960199</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1078</v>
       </c>
     </row>
@@ -5897,23 +6697,23 @@
         <v>98</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>106350</v>
       </c>
       <c r="E104" s="3">
-        <f>D104/$X$26</f>
+        <f t="shared" si="31"/>
         <v>158.73134328358208</v>
       </c>
       <c r="F104" s="3">
-        <f>D104/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>176.3681592039801</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1089</v>
       </c>
     </row>
@@ -5922,23 +6722,23 @@
         <v>99</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>108000</v>
       </c>
       <c r="E105" s="3">
-        <f>D105/$X$26</f>
+        <f t="shared" si="31"/>
         <v>161.19402985074626</v>
       </c>
       <c r="F105" s="3">
-        <f>D105/$AD$26</f>
+        <f t="shared" si="28"/>
         <v>179.1044776119403</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1100</v>
       </c>
     </row>

--- a/Assets/06.Table/TransJewelLevel.xlsx
+++ b/Assets/06.Table/TransJewelLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908384C-7DD8-45A7-8DEA-60BE040B2FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112667A-66A4-423B-81D3-9A96E13C2B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransJewelLevel" sheetId="1" r:id="rId1"/>
@@ -535,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2344,6 +2344,1606 @@
         <v>850</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6655,7 +8255,7 @@
         <v>103050</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" ref="E102:E133" si="31">D102/$X$26</f>
+        <f t="shared" ref="E102:E105" si="31">D102/$X$26</f>
         <v>153.80597014925374</v>
       </c>
       <c r="F102" s="3">

--- a/Assets/06.Table/TransJewelLevel.xlsx
+++ b/Assets/06.Table/TransJewelLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112667A-66A4-423B-81D3-9A96E13C2B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06EE7A-FEBB-4033-A013-701C91AC9DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransJewelLevel" sheetId="1" r:id="rId1"/>
@@ -535,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3944,6 +3944,806 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TransJewelLevel.xlsx
+++ b/Assets/06.Table/TransJewelLevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06EE7A-FEBB-4033-A013-701C91AC9DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1509639-E057-43BB-BFE8-5E9478E913E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -535,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
+      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B995" sqref="B995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4744,6 +4744,4006 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
